--- a/dataanalysis/data/predictions/1200/09261140_1144.xlsx
+++ b/dataanalysis/data/predictions/1200/09261140_1144.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="114">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-26</t>
   </si>
   <si>
@@ -353,12 +356,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -716,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH45"/>
+  <dimension ref="A1:AI45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,19 +822,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300014</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-3.2</v>
@@ -855,7 +855,7 @@
         <v>377009.72</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K2">
         <v>16</v>
@@ -897,10 +897,25 @@
         <v>-0.17</v>
       </c>
       <c r="X2" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="Y2">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Z2">
+        <v>86.7</v>
+      </c>
+      <c r="AA2">
+        <v>10.19</v>
       </c>
       <c r="AC2" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -908,22 +923,25 @@
       <c r="AG2">
         <v>-6.681182384490967</v>
       </c>
-      <c r="AH2" t="s">
-        <v>113</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300111</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-13.56</v>
@@ -941,7 +959,7 @@
         <v>212814.64</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K3">
         <v>11</v>
@@ -983,10 +1001,25 @@
         <v>-2.76</v>
       </c>
       <c r="X3" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y3">
+        <v>-4.21</v>
+      </c>
+      <c r="Z3">
+        <v>8.08</v>
+      </c>
+      <c r="AA3">
+        <v>3.86</v>
       </c>
       <c r="AC3" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -994,22 +1027,25 @@
       <c r="AG3">
         <v>5.503211975097656</v>
       </c>
-      <c r="AH3" t="s">
-        <v>113</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300115</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-3.88</v>
@@ -1027,7 +1063,7 @@
         <v>409084.19</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K4">
         <v>7</v>
@@ -1069,10 +1105,25 @@
         <v>-1.03</v>
       </c>
       <c r="X4" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Y4">
+        <v>10.47</v>
+      </c>
+      <c r="Z4">
+        <v>42.2</v>
+      </c>
+      <c r="AA4">
+        <v>11.4</v>
       </c>
       <c r="AC4" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1080,22 +1131,25 @@
       <c r="AG4">
         <v>-0.2641937136650085</v>
       </c>
-      <c r="AH4" t="s">
-        <v>113</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300207</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>2.68</v>
@@ -1113,7 +1167,7 @@
         <v>314657.41</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K5">
         <v>16</v>
@@ -1155,10 +1209,25 @@
         <v>0.16</v>
       </c>
       <c r="X5" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y5">
+        <v>2.01</v>
+      </c>
+      <c r="Z5">
+        <v>35.94</v>
+      </c>
+      <c r="AA5">
+        <v>4.33</v>
       </c>
       <c r="AC5" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1166,22 +1235,25 @@
       <c r="AG5">
         <v>3.286435604095459</v>
       </c>
-      <c r="AH5" t="s">
-        <v>113</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300236</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-3.61</v>
@@ -1199,7 +1271,7 @@
         <v>75428.92999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K6">
         <v>4</v>
@@ -1241,10 +1313,25 @@
         <v>-0.03</v>
       </c>
       <c r="X6" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y6">
+        <v>-1.33</v>
+      </c>
+      <c r="Z6">
+        <v>63.79</v>
+      </c>
+      <c r="AA6">
+        <v>0.43</v>
       </c>
       <c r="AC6" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1252,22 +1339,25 @@
       <c r="AG6">
         <v>-0.4668473303318024</v>
       </c>
-      <c r="AH6" t="s">
-        <v>113</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300270</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-5.53</v>
@@ -1285,7 +1375,7 @@
         <v>43078.45</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1327,10 +1417,25 @@
         <v>0.78</v>
       </c>
       <c r="X7" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Y7">
+        <v>-5.98</v>
+      </c>
+      <c r="Z7">
+        <v>11.2</v>
+      </c>
+      <c r="AA7">
+        <v>2.47</v>
       </c>
       <c r="AC7" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1338,22 +1443,25 @@
       <c r="AG7">
         <v>43.99062728881836</v>
       </c>
-      <c r="AH7" t="s">
-        <v>113</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300274</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>0.07000000000000001</v>
@@ -1371,7 +1479,7 @@
         <v>1037110.78</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K8">
         <v>18</v>
@@ -1413,10 +1521,25 @@
         <v>-0.16</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y8">
+        <v>4.76</v>
+      </c>
+      <c r="Z8">
+        <v>169.8</v>
+      </c>
+      <c r="AA8">
+        <v>6.16</v>
       </c>
       <c r="AC8" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1424,22 +1547,25 @@
       <c r="AG8">
         <v>-6.006852149963379</v>
       </c>
-      <c r="AH8" t="s">
-        <v>113</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300421</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>3.11</v>
@@ -1457,7 +1583,7 @@
         <v>91840.61</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1499,10 +1625,25 @@
         <v>0.06</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y9">
+        <v>-2.64</v>
+      </c>
+      <c r="Z9">
+        <v>20.01</v>
+      </c>
+      <c r="AA9">
+        <v>0.6</v>
       </c>
       <c r="AC9" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1510,22 +1651,25 @@
       <c r="AG9">
         <v>2.187901258468628</v>
       </c>
-      <c r="AH9" t="s">
-        <v>113</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300432</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>1.37</v>
@@ -1543,7 +1687,7 @@
         <v>179352.47</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1585,10 +1729,25 @@
         <v>-0.01</v>
       </c>
       <c r="X10" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y10">
+        <v>6.68</v>
+      </c>
+      <c r="Z10">
+        <v>18.86</v>
+      </c>
+      <c r="AA10">
+        <v>6.37</v>
       </c>
       <c r="AC10" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1596,22 +1755,25 @@
       <c r="AG10">
         <v>1.971200227737427</v>
       </c>
-      <c r="AH10" t="s">
-        <v>113</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300450</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0.35</v>
@@ -1629,7 +1791,7 @@
         <v>813306.5699999999</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K11">
         <v>21</v>
@@ -1671,10 +1833,25 @@
         <v>-0.21</v>
       </c>
       <c r="X11" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y11">
+        <v>-3.59</v>
+      </c>
+      <c r="Z11">
+        <v>68</v>
+      </c>
+      <c r="AA11">
+        <v>4.13</v>
       </c>
       <c r="AC11" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1682,22 +1859,25 @@
       <c r="AG11">
         <v>3.912238121032715</v>
       </c>
-      <c r="AH11" t="s">
-        <v>113</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300457</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>3.41</v>
@@ -1715,7 +1895,7 @@
         <v>148951.42</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K12">
         <v>19</v>
@@ -1757,10 +1937,25 @@
         <v>0.3</v>
       </c>
       <c r="X12" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y12">
+        <v>-2.1</v>
+      </c>
+      <c r="Z12">
+        <v>39.49</v>
+      </c>
+      <c r="AA12">
+        <v>9.42</v>
       </c>
       <c r="AC12" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1768,22 +1963,25 @@
       <c r="AG12">
         <v>1.368793964385986</v>
       </c>
-      <c r="AH12" t="s">
-        <v>113</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300475</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-0.14</v>
@@ -1801,7 +1999,7 @@
         <v>192723.56</v>
       </c>
       <c r="J13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13">
         <v>16</v>
@@ -1843,10 +2041,25 @@
         <v>-0.27</v>
       </c>
       <c r="X13" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y13">
+        <v>8.23</v>
+      </c>
+      <c r="Z13">
+        <v>86.28</v>
+      </c>
+      <c r="AA13">
+        <v>7.22</v>
       </c>
       <c r="AC13" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1854,22 +2067,25 @@
       <c r="AG13">
         <v>2.156144857406616</v>
       </c>
-      <c r="AH13" t="s">
-        <v>113</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300490</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>14.34</v>
@@ -1887,7 +2103,7 @@
         <v>92715</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1929,10 +2145,25 @@
         <v>1.98</v>
       </c>
       <c r="X14" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y14">
+        <v>3.9</v>
+      </c>
+      <c r="Z14">
+        <v>13.55</v>
+      </c>
+      <c r="AA14">
+        <v>8.92</v>
       </c>
       <c r="AC14" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1940,22 +2171,25 @@
       <c r="AG14">
         <v>4.548962593078613</v>
       </c>
-      <c r="AH14" t="s">
-        <v>113</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300502</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>0.41</v>
@@ -1973,7 +2207,7 @@
         <v>940561.72</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -2015,10 +2249,25 @@
         <v>0.03</v>
       </c>
       <c r="X15" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y15">
+        <v>3.82</v>
+      </c>
+      <c r="Z15">
+        <v>398.6</v>
+      </c>
+      <c r="AA15">
+        <v>5.58</v>
       </c>
       <c r="AC15" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2026,22 +2275,25 @@
       <c r="AG15">
         <v>3.85307502746582</v>
       </c>
-      <c r="AH15" t="s">
-        <v>113</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300539</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-1.28</v>
@@ -2059,7 +2311,7 @@
         <v>31798.56</v>
       </c>
       <c r="J16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16">
         <v>16</v>
@@ -2101,10 +2353,25 @@
         <v>0.09</v>
       </c>
       <c r="X16" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y16">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="Z16">
+        <v>48.42</v>
+      </c>
+      <c r="AA16">
+        <v>1.49</v>
       </c>
       <c r="AC16" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2112,22 +2379,25 @@
       <c r="AG16">
         <v>6.477678298950195</v>
       </c>
-      <c r="AH16" t="s">
-        <v>113</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300604</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-0.93</v>
@@ -2145,7 +2415,7 @@
         <v>725564.77</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K17">
         <v>23</v>
@@ -2187,10 +2457,25 @@
         <v>-0.15</v>
       </c>
       <c r="X17" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y17">
+        <v>8.91</v>
+      </c>
+      <c r="Z17">
+        <v>106.99</v>
+      </c>
+      <c r="AA17">
+        <v>14.17</v>
       </c>
       <c r="AC17" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2198,22 +2483,25 @@
       <c r="AG17">
         <v>-10.55009365081787</v>
       </c>
-      <c r="AH17" t="s">
-        <v>113</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300650</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>1.88</v>
@@ -2231,7 +2519,7 @@
         <v>69214.09</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -2273,10 +2561,25 @@
         <v>-2.59</v>
       </c>
       <c r="X18" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y18">
+        <v>4.82</v>
+      </c>
+      <c r="Z18">
+        <v>22</v>
+      </c>
+      <c r="AA18">
+        <v>4.17</v>
       </c>
       <c r="AC18" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2284,22 +2587,25 @@
       <c r="AG18">
         <v>-4.690628051757812</v>
       </c>
-      <c r="AH18" t="s">
-        <v>113</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300666</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>4.63</v>
@@ -2317,7 +2623,7 @@
         <v>295832.63</v>
       </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -2359,10 +2665,25 @@
         <v>0.53</v>
       </c>
       <c r="X19" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y19">
+        <v>1.96</v>
+      </c>
+      <c r="Z19">
+        <v>110.29</v>
+      </c>
+      <c r="AA19">
+        <v>5.31</v>
       </c>
       <c r="AC19" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2370,22 +2691,25 @@
       <c r="AG19">
         <v>0.8937253952026367</v>
       </c>
-      <c r="AH19" t="s">
-        <v>113</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300680</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>4.29</v>
@@ -2403,7 +2727,7 @@
         <v>111912.88</v>
       </c>
       <c r="J20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K20">
         <v>12</v>
@@ -2445,10 +2769,25 @@
         <v>0.4</v>
       </c>
       <c r="X20" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y20">
+        <v>0.65</v>
+      </c>
+      <c r="Z20">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="AA20">
+        <v>-0.3</v>
       </c>
       <c r="AC20" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2456,22 +2795,25 @@
       <c r="AG20">
         <v>6.278938770294189</v>
       </c>
-      <c r="AH20" t="s">
-        <v>113</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300686</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-3.35</v>
@@ -2489,7 +2831,7 @@
         <v>30186.01</v>
       </c>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2531,10 +2873,25 @@
         <v>-0.74</v>
       </c>
       <c r="X21" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y21">
+        <v>-1.28</v>
+      </c>
+      <c r="Z21">
+        <v>15.74</v>
+      </c>
+      <c r="AA21">
+        <v>1.16</v>
       </c>
       <c r="AC21" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2542,22 +2899,25 @@
       <c r="AG21">
         <v>5.907288551330566</v>
       </c>
-      <c r="AH21" t="s">
-        <v>113</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300969</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-5.77</v>
@@ -2575,7 +2935,7 @@
         <v>40998.07</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22">
         <v>8</v>
@@ -2617,10 +2977,25 @@
         <v>-0.61</v>
       </c>
       <c r="X22" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y22">
+        <v>1.79</v>
+      </c>
+      <c r="Z22">
+        <v>131.88</v>
+      </c>
+      <c r="AA22">
+        <v>1.9</v>
       </c>
       <c r="AC22" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2628,22 +3003,25 @@
       <c r="AG22">
         <v>5.615737915039062</v>
       </c>
-      <c r="AH22" t="s">
-        <v>113</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>301013</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>5.51</v>
@@ -2661,7 +3039,7 @@
         <v>105953.4</v>
       </c>
       <c r="J23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K23">
         <v>7</v>
@@ -2703,10 +3081,25 @@
         <v>1.27</v>
       </c>
       <c r="X23" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y23">
+        <v>5.56</v>
+      </c>
+      <c r="Z23">
+        <v>32.03</v>
+      </c>
+      <c r="AA23">
+        <v>13.7</v>
       </c>
       <c r="AC23" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -2714,22 +3107,25 @@
       <c r="AG23">
         <v>2.857006072998047</v>
       </c>
-      <c r="AH23" t="s">
-        <v>114</v>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>301086</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-6.98</v>
@@ -2747,7 +3143,7 @@
         <v>33642.47</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -2789,10 +3185,25 @@
         <v>-0.51</v>
       </c>
       <c r="X24" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y24">
+        <v>9.31</v>
+      </c>
+      <c r="Z24">
+        <v>88.86</v>
+      </c>
+      <c r="AA24">
+        <v>12.27</v>
       </c>
       <c r="AC24" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2800,22 +3211,25 @@
       <c r="AG24">
         <v>0.8321625590324402</v>
       </c>
-      <c r="AH24" t="s">
-        <v>113</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>301308</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-0.51</v>
@@ -2833,7 +3247,7 @@
         <v>138880.03</v>
       </c>
       <c r="J25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K25">
         <v>6</v>
@@ -2875,10 +3289,25 @@
         <v>-0.05</v>
       </c>
       <c r="X25" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y25">
+        <v>5.22</v>
+      </c>
+      <c r="Z25">
+        <v>149.6</v>
+      </c>
+      <c r="AA25">
+        <v>4.5</v>
       </c>
       <c r="AC25" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2886,22 +3315,25 @@
       <c r="AG25">
         <v>2.588987588882446</v>
       </c>
-      <c r="AH25" t="s">
-        <v>113</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>301319</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>1.87</v>
@@ -2919,7 +3351,7 @@
         <v>31574.19</v>
       </c>
       <c r="J26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -2961,10 +3393,25 @@
         <v>-0.25</v>
       </c>
       <c r="X26" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y26">
+        <v>1.2</v>
+      </c>
+      <c r="Z26">
+        <v>48.67</v>
+      </c>
+      <c r="AA26">
+        <v>1.63</v>
       </c>
       <c r="AC26" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2972,22 +3419,25 @@
       <c r="AG26">
         <v>5.102517604827881</v>
       </c>
-      <c r="AH26" t="s">
-        <v>113</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>301421</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-5.53</v>
@@ -3005,7 +3455,7 @@
         <v>140552.67</v>
       </c>
       <c r="J27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -3047,10 +3497,25 @@
         <v>-0.8100000000000001</v>
       </c>
       <c r="X27" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y27">
+        <v>4.06</v>
+      </c>
+      <c r="Z27">
+        <v>121.96</v>
+      </c>
+      <c r="AA27">
+        <v>3.31</v>
       </c>
       <c r="AC27" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3058,22 +3523,25 @@
       <c r="AG27">
         <v>4.404017448425293</v>
       </c>
-      <c r="AH27" t="s">
-        <v>113</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>688028</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-1.34</v>
@@ -3091,7 +3559,7 @@
         <v>31961.83</v>
       </c>
       <c r="J28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K28">
         <v>15</v>
@@ -3133,10 +3601,25 @@
         <v>0.36</v>
       </c>
       <c r="X28" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y28">
+        <v>-3.72</v>
+      </c>
+      <c r="Z28">
+        <v>55.34</v>
+      </c>
+      <c r="AA28">
+        <v>3.07</v>
       </c>
       <c r="AC28" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3144,22 +3627,25 @@
       <c r="AG28">
         <v>3.021066188812256</v>
       </c>
-      <c r="AH28" t="s">
-        <v>113</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>688041</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-1.57</v>
@@ -3177,7 +3663,7 @@
         <v>548265.88</v>
       </c>
       <c r="J29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3219,10 +3705,25 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="X29" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y29">
+        <v>-1.26</v>
+      </c>
+      <c r="Z29">
+        <v>259.88</v>
+      </c>
+      <c r="AA29">
+        <v>-1.45</v>
       </c>
       <c r="AC29" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3230,22 +3731,25 @@
       <c r="AG29">
         <v>1.754889965057373</v>
       </c>
-      <c r="AH29" t="s">
-        <v>113</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>688123</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>11.12</v>
@@ -3263,7 +3767,7 @@
         <v>203071.76</v>
       </c>
       <c r="J30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -3305,10 +3809,25 @@
         <v>0.75</v>
       </c>
       <c r="X30" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y30">
+        <v>3.52</v>
+      </c>
+      <c r="Z30">
+        <v>148.62</v>
+      </c>
+      <c r="AA30">
+        <v>1.35</v>
       </c>
       <c r="AC30" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3316,22 +3835,25 @@
       <c r="AG30">
         <v>3.60101318359375</v>
       </c>
-      <c r="AH30" t="s">
-        <v>113</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>688141</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-1.97</v>
@@ -3349,7 +3871,7 @@
         <v>47853.75</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K31">
         <v>18</v>
@@ -3391,10 +3913,25 @@
         <v>0.02</v>
       </c>
       <c r="X31" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y31">
+        <v>2.58</v>
+      </c>
+      <c r="Z31">
+        <v>59</v>
+      </c>
+      <c r="AA31">
+        <v>2.4</v>
       </c>
       <c r="AC31" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3402,22 +3939,25 @@
       <c r="AG31">
         <v>1.5622718334198</v>
       </c>
-      <c r="AH31" t="s">
-        <v>113</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>688147</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-1.27</v>
@@ -3435,7 +3975,7 @@
         <v>44298</v>
       </c>
       <c r="J32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K32">
         <v>30</v>
@@ -3477,10 +4017,25 @@
         <v>0.11</v>
       </c>
       <c r="X32" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Y32">
+        <v>7.1</v>
+      </c>
+      <c r="Z32">
+        <v>56.28</v>
+      </c>
+      <c r="AA32">
+        <v>4.9</v>
       </c>
       <c r="AC32" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3488,22 +4043,25 @@
       <c r="AG32">
         <v>3.377652645111084</v>
       </c>
-      <c r="AH32" t="s">
-        <v>113</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>688233</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-0.82</v>
@@ -3521,7 +4079,7 @@
         <v>64279.62</v>
       </c>
       <c r="J33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -3563,10 +4121,25 @@
         <v>-0.38</v>
       </c>
       <c r="X33" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y33">
+        <v>-0.22</v>
+      </c>
+      <c r="Z33">
+        <v>46.45</v>
+      </c>
+      <c r="AA33">
+        <v>0.65</v>
       </c>
       <c r="AC33" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3574,22 +4147,25 @@
       <c r="AG33">
         <v>0.2913212478160858</v>
       </c>
-      <c r="AH33" t="s">
-        <v>113</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>688332</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-1.33</v>
@@ -3607,7 +4183,7 @@
         <v>54146.16</v>
       </c>
       <c r="J34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -3649,10 +4225,25 @@
         <v>-0.16</v>
       </c>
       <c r="X34" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y34">
+        <v>8.51</v>
+      </c>
+      <c r="Z34">
+        <v>160.9</v>
+      </c>
+      <c r="AA34">
+        <v>13.23</v>
       </c>
       <c r="AC34" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3660,22 +4251,25 @@
       <c r="AG34">
         <v>8.548460960388184</v>
       </c>
-      <c r="AH34" t="s">
-        <v>113</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>688347</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>3.78</v>
@@ -3693,7 +4287,7 @@
         <v>182356.75</v>
       </c>
       <c r="J35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K35">
         <v>12</v>
@@ -3735,10 +4329,25 @@
         <v>0.36</v>
       </c>
       <c r="X35" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y35">
+        <v>3.37</v>
+      </c>
+      <c r="Z35">
+        <v>99</v>
+      </c>
+      <c r="AA35">
+        <v>5.54</v>
       </c>
       <c r="AC35" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3746,22 +4355,25 @@
       <c r="AG35">
         <v>4.04743766784668</v>
       </c>
-      <c r="AH35" t="s">
-        <v>113</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>688403</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>4.56</v>
@@ -3779,7 +4391,7 @@
         <v>86647.25999999999</v>
       </c>
       <c r="J36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -3821,10 +4433,25 @@
         <v>0.42</v>
       </c>
       <c r="X36" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y36">
+        <v>-0.26</v>
+      </c>
+      <c r="Z36">
+        <v>19.35</v>
+      </c>
+      <c r="AA36">
+        <v>1.68</v>
       </c>
       <c r="AC36" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3832,22 +4459,25 @@
       <c r="AG36">
         <v>-2.186130523681641</v>
       </c>
-      <c r="AH36" t="s">
-        <v>113</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688409</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-2.14</v>
@@ -3865,7 +4495,7 @@
         <v>55756.15</v>
       </c>
       <c r="J37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3906,8 +4536,23 @@
       <c r="W37">
         <v>-0.48</v>
       </c>
+      <c r="Y37">
+        <v>1.35</v>
+      </c>
+      <c r="Z37">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="AA37">
+        <v>0.68</v>
+      </c>
       <c r="AC37" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3915,22 +4560,25 @@
       <c r="AG37">
         <v>2.0594162940979</v>
       </c>
-      <c r="AH37" t="s">
-        <v>113</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688411</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-2.17</v>
@@ -3948,7 +4596,7 @@
         <v>51737.61</v>
       </c>
       <c r="J38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K38">
         <v>19</v>
@@ -3990,10 +4638,25 @@
         <v>-0.35</v>
       </c>
       <c r="X38" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y38">
+        <v>15.02</v>
+      </c>
+      <c r="Z38">
+        <v>320.44</v>
+      </c>
+      <c r="AA38">
+        <v>16.98</v>
       </c>
       <c r="AC38" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4001,22 +4664,25 @@
       <c r="AG38">
         <v>26.6192569732666</v>
       </c>
-      <c r="AH38" t="s">
-        <v>113</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688503</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-6.08</v>
@@ -4034,7 +4700,7 @@
         <v>126635.08</v>
       </c>
       <c r="J39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4076,10 +4742,25 @@
         <v>-0.3</v>
       </c>
       <c r="X39" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Y39">
+        <v>3.52</v>
+      </c>
+      <c r="Z39">
+        <v>84.2</v>
+      </c>
+      <c r="AA39">
+        <v>19.77</v>
       </c>
       <c r="AC39" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4087,22 +4768,25 @@
       <c r="AG39">
         <v>0.9924973249435425</v>
       </c>
-      <c r="AH39" t="s">
-        <v>113</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688525</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>2.11</v>
@@ -4120,7 +4804,7 @@
         <v>251457.25</v>
       </c>
       <c r="J40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K40">
         <v>5</v>
@@ -4162,10 +4846,25 @@
         <v>0.34</v>
       </c>
       <c r="X40" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y40">
+        <v>5.85</v>
+      </c>
+      <c r="Z40">
+        <v>96.88</v>
+      </c>
+      <c r="AA40">
+        <v>4.84</v>
       </c>
       <c r="AC40" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4173,22 +4872,25 @@
       <c r="AG40">
         <v>-0.9536429047584534</v>
       </c>
-      <c r="AH40" t="s">
-        <v>113</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688545</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-0.16</v>
@@ -4206,7 +4908,7 @@
         <v>38995.1</v>
       </c>
       <c r="J41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -4248,10 +4950,25 @@
         <v>-0.79</v>
       </c>
       <c r="X41" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y41">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="Z41">
+        <v>40.14</v>
+      </c>
+      <c r="AA41">
+        <v>5.08</v>
       </c>
       <c r="AC41" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4259,22 +4976,25 @@
       <c r="AG41">
         <v>5.598873615264893</v>
       </c>
-      <c r="AH41" t="s">
-        <v>113</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688627</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>2.21</v>
@@ -4292,7 +5012,7 @@
         <v>73003.74000000001</v>
       </c>
       <c r="J42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K42">
         <v>11</v>
@@ -4334,10 +5054,25 @@
         <v>-0.13</v>
       </c>
       <c r="X42" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y42">
+        <v>8.09</v>
+      </c>
+      <c r="Z42">
+        <v>190.99</v>
+      </c>
+      <c r="AA42">
+        <v>6.78</v>
       </c>
       <c r="AC42" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4345,22 +5080,25 @@
       <c r="AG42">
         <v>0.6966990232467651</v>
       </c>
-      <c r="AH42" t="s">
-        <v>113</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688652</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>3.34</v>
@@ -4378,7 +5116,7 @@
         <v>64253.2</v>
       </c>
       <c r="J43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -4420,10 +5158,25 @@
         <v>0.04</v>
       </c>
       <c r="X43" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y43">
+        <v>9.18</v>
+      </c>
+      <c r="Z43">
+        <v>107.49</v>
+      </c>
+      <c r="AA43">
+        <v>9.26</v>
       </c>
       <c r="AC43" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4431,22 +5184,25 @@
       <c r="AG43">
         <v>3.262841939926147</v>
       </c>
-      <c r="AH43" t="s">
-        <v>113</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688661</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-4.65</v>
@@ -4464,7 +5220,7 @@
         <v>28792.27</v>
       </c>
       <c r="J44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -4506,10 +5262,25 @@
         <v>-0.35</v>
       </c>
       <c r="X44" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y44">
+        <v>-1.27</v>
+      </c>
+      <c r="Z44">
+        <v>52.3</v>
+      </c>
+      <c r="AA44">
+        <v>2.51</v>
       </c>
       <c r="AC44" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4517,22 +5288,25 @@
       <c r="AG44">
         <v>0.05947333201766014</v>
       </c>
-      <c r="AH44" t="s">
-        <v>113</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688981</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-1.3</v>
@@ -4550,7 +5324,7 @@
         <v>683801.86</v>
       </c>
       <c r="J45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K45">
         <v>12</v>
@@ -4592,10 +5366,25 @@
         <v>-0.38</v>
       </c>
       <c r="X45" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Y45">
+        <v>2.84</v>
+      </c>
+      <c r="Z45">
+        <v>136.02</v>
+      </c>
+      <c r="AA45">
+        <v>2.77</v>
       </c>
       <c r="AC45" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4603,8 +5392,11 @@
       <c r="AG45">
         <v>4.668422698974609</v>
       </c>
-      <c r="AH45" t="s">
-        <v>113</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
